--- a/data/Demo_example_integration.xlsx
+++ b/data/Demo_example_integration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmab\Desktop\PhD\Shiny\App-v2 -github\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F23135-48C4-40E6-A840-4BB5CB39748A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89E823F-40C2-4361-9529-36B39C4AD417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{375DB655-070C-42A1-A5D3-727436EA67B1}"/>
+    <workbookView xWindow="-20040" yWindow="-1540" windowWidth="17280" windowHeight="8880" xr2:uid="{375DB655-070C-42A1-A5D3-727436EA67B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>cell_type</t>
   </si>
@@ -44,56 +44,66 @@
     <t>marker</t>
   </si>
   <si>
-    <t>Cones</t>
-  </si>
-  <si>
-    <t>ARR3</t>
-  </si>
-  <si>
-    <t>Retinal ganglion cells</t>
-  </si>
-  <si>
-    <t>ATOH7</t>
-  </si>
-  <si>
-    <t>POU4F1</t>
-  </si>
-  <si>
-    <t>Rods</t>
-  </si>
-  <si>
-    <t>C11orf96</t>
-  </si>
-  <si>
-    <t>Bipolar cells</t>
-  </si>
-  <si>
-    <t>CA10</t>
-  </si>
-  <si>
-    <t>CADPS</t>
-  </si>
-  <si>
     <t>tissue</t>
   </si>
   <si>
-    <t>retina</t>
+    <t>species</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>brain</t>
+  </si>
+  <si>
+    <t>glutamatergic neuron</t>
+  </si>
+  <si>
+    <t>Satb2</t>
+  </si>
+  <si>
+    <t>custom_set_1</t>
+  </si>
+  <si>
+    <t>custom_set_2</t>
+  </si>
+  <si>
+    <t>Slc17a6</t>
+  </si>
+  <si>
+    <t>Slc17a7</t>
+  </si>
+  <si>
+    <t>pyramidal neuron</t>
+  </si>
+  <si>
+    <t>Sv2b</t>
+  </si>
+  <si>
+    <t>Calb1</t>
+  </si>
+  <si>
+    <t>Pde1a</t>
+  </si>
+  <si>
+    <t>custom_set_3</t>
+  </si>
+  <si>
+    <t>marker_type</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -121,15 +131,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -464,87 +467,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBF00EC-6CFF-4E46-AE90-5ED08369D299}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
